--- a/GardenAndOgorodShop/bin/Debug/ReportsAnalyzOrders/Анализ продажи от 2025-03-01 00.00.00 до 2025-03-20 00.00.00.xlsx
+++ b/GardenAndOgorodShop/bin/Debug/ReportsAnalyzOrders/Анализ продажи от 2025-03-01 00.00.00 до 2025-03-20 00.00.00.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dmitry\Desktop\kursovaya\GardenAndOgorodShop\GardenAndOgorodShop\bin\Debug\ReportsAnalyzOrders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A45EC5A-B25F-47AC-96E6-41CE18596D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00446837-F466-4313-B937-8A25D02C2416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
